--- a/FixtureGenerator/FixturesMaster.xlsx
+++ b/FixtureGenerator/FixturesMaster.xlsx
@@ -17,13 +17,20 @@
     <sheet name="Fixtures Display" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="FinalPositionNight">Setup!$A$11</definedName>
-    <definedName name="FirstWeekDate">Setup!$A$7</definedName>
+    <definedName name="BlindScore">Setup!$A$27</definedName>
+    <definedName name="COHcapWeeks">Setup!$A$25</definedName>
+    <definedName name="FinalPositionNight">Setup!$A$17</definedName>
+    <definedName name="FirstWeekDate">Setup!$A$13</definedName>
     <definedName name="FirstWeekFixtures">Setup!$F$3:$G$6</definedName>
-    <definedName name="FirstWeekNo">Setup!$A$5</definedName>
-    <definedName name="InterroundPositionNights">Setup!$A$9</definedName>
-    <definedName name="NoOfRounds">Setup!$A$3</definedName>
+    <definedName name="FirstWeekNo">Setup!$A$11</definedName>
+    <definedName name="HcapAvgCeiling">Setup!$A$19</definedName>
+    <definedName name="HcapPctge">Setup!$A$21</definedName>
+    <definedName name="InterroundPositionNights">Setup!$A$15</definedName>
+    <definedName name="MaxHcap">Setup!$A$23</definedName>
+    <definedName name="NoOfRounds">Setup!$A$9</definedName>
+    <definedName name="PlayersPerWeek">Setup!$A$5</definedName>
     <definedName name="TeamCodes">Setup!$B$3:$D$10</definedName>
+    <definedName name="Year">Setup!$A$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Team No</t>
   </si>
@@ -106,12 +113,6 @@
     <t>Display First Week Fixtures</t>
   </si>
   <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>Number Of Rounds</t>
-  </si>
-  <si>
     <t>First Week Number</t>
   </si>
   <si>
@@ -134,6 +135,39 @@
   </si>
   <si>
     <t>First Week Fixtures</t>
+  </si>
+  <si>
+    <t>Maximum Team Squad Size</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>Handicap Average Ceiling</t>
+  </si>
+  <si>
+    <t>Handicap Percentage</t>
+  </si>
+  <si>
+    <t>Maximum Handicap</t>
+  </si>
+  <si>
+    <t>Carry Over Handicap Weeks</t>
+  </si>
+  <si>
+    <t>Blind Score</t>
+  </si>
+  <si>
+    <t>Season Parameters</t>
+  </si>
+  <si>
+    <t>Players Per Team</t>
+  </si>
+  <si>
+    <t>Number Of Fixture Rounds</t>
   </si>
 </sst>
 </file>
@@ -503,11 +537,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -525,13 +557,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>22</v>
@@ -539,7 +571,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -558,8 +590,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A3" s="2">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -590,7 +622,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -621,7 +653,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -652,7 +684,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -682,8 +714,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A7" s="3">
-        <v>42774</v>
+      <c r="A7" s="2">
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -697,7 +729,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -710,8 +742,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
+      <c r="A9" s="2">
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -725,7 +757,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -738,8 +770,88 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13" s="3">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A21" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A27" s="2">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
